--- a/data/news_and_keyword/kosdaq/꿈비.xlsx
+++ b/data/news_and_keyword/kosdaq/꿈비.xlsx
@@ -1383,12 +1383,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>코스닥 시장 상장 첫날 '따상'</t>
+          <t>코스닥 상장 첫날 '따상'</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['코스닥', '시장', '상장', '첫날']</t>
+          <t>['코스닥', '상장', '첫날']</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 '따상'</t>
+          <t>코스닥 시장 상장 첫날 '따상'</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날']</t>
+          <t>['코스닥', '시장', '상장', '첫날']</t>
         </is>
       </c>
       <c r="D38" t="n">
